--- a/simulator.xlsx
+++ b/simulator.xlsx
@@ -55,7 +55,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B708"/>
+  <dimension ref="A1:B1746"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3114,7 +3114,7 @@
         <v>381.0</v>
       </c>
       <c r="B382" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="383">
@@ -3122,7 +3122,7 @@
         <v>382.0</v>
       </c>
       <c r="B383" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="384">
@@ -3130,7 +3130,7 @@
         <v>383.0</v>
       </c>
       <c r="B384" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="385">
@@ -3138,7 +3138,7 @@
         <v>384.0</v>
       </c>
       <c r="B385" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="386">
@@ -3146,7 +3146,7 @@
         <v>385.0</v>
       </c>
       <c r="B386" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="387">
@@ -3154,7 +3154,7 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="388">
@@ -3162,7 +3162,7 @@
         <v>387.0</v>
       </c>
       <c r="B388" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="389">
@@ -3170,7 +3170,7 @@
         <v>388.0</v>
       </c>
       <c r="B389" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="390">
@@ -3178,7 +3178,7 @@
         <v>389.0</v>
       </c>
       <c r="B390" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="391">
@@ -3186,7 +3186,7 @@
         <v>390.0</v>
       </c>
       <c r="B391" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="392">
@@ -3194,7 +3194,7 @@
         <v>391.0</v>
       </c>
       <c r="B392" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="393">
@@ -3202,7 +3202,7 @@
         <v>392.0</v>
       </c>
       <c r="B393" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="394">
@@ -3210,7 +3210,7 @@
         <v>393.0</v>
       </c>
       <c r="B394" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="395">
@@ -3218,7 +3218,7 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="396">
@@ -3226,7 +3226,7 @@
         <v>395.0</v>
       </c>
       <c r="B396" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="397">
@@ -3234,7 +3234,7 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="398">
@@ -3242,7 +3242,7 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="399">
@@ -3250,7 +3250,7 @@
         <v>398.0</v>
       </c>
       <c r="B399" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="400">
@@ -3258,7 +3258,7 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="401">
@@ -3266,7 +3266,7 @@
         <v>400.0</v>
       </c>
       <c r="B401" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="402">
@@ -3274,7 +3274,7 @@
         <v>401.0</v>
       </c>
       <c r="B402" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="403">
@@ -3282,7 +3282,7 @@
         <v>402.0</v>
       </c>
       <c r="B403" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="404">
@@ -3290,7 +3290,7 @@
         <v>403.0</v>
       </c>
       <c r="B404" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="405">
@@ -3298,7 +3298,7 @@
         <v>404.0</v>
       </c>
       <c r="B405" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="406">
@@ -3306,7 +3306,7 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="407">
@@ -3314,7 +3314,7 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="408">
@@ -3322,7 +3322,7 @@
         <v>407.0</v>
       </c>
       <c r="B408" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="409">
@@ -3330,7 +3330,7 @@
         <v>408.0</v>
       </c>
       <c r="B409" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="410">
@@ -3338,7 +3338,7 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="411">
@@ -3346,7 +3346,7 @@
         <v>410.0</v>
       </c>
       <c r="B411" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="412">
@@ -3354,7 +3354,7 @@
         <v>411.0</v>
       </c>
       <c r="B412" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="413">
@@ -3362,7 +3362,7 @@
         <v>412.0</v>
       </c>
       <c r="B413" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="414">
@@ -3658,7 +3658,7 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="451">
@@ -3666,7 +3666,7 @@
         <v>450.0</v>
       </c>
       <c r="B451" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="452">
@@ -3674,7 +3674,7 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="453">
@@ -3682,7 +3682,7 @@
         <v>452.0</v>
       </c>
       <c r="B453" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="454">
@@ -3946,7 +3946,7 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="487">
@@ -3954,7 +3954,7 @@
         <v>486.0</v>
       </c>
       <c r="B487" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="488">
@@ -3962,7 +3962,7 @@
         <v>487.0</v>
       </c>
       <c r="B488" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="489">
@@ -3970,7 +3970,7 @@
         <v>488.0</v>
       </c>
       <c r="B489" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="490">
@@ -3978,7 +3978,7 @@
         <v>489.0</v>
       </c>
       <c r="B490" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="491">
@@ -3986,7 +3986,7 @@
         <v>490.0</v>
       </c>
       <c r="B491" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="492">
@@ -3994,7 +3994,7 @@
         <v>491.0</v>
       </c>
       <c r="B492" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="493">
@@ -4002,7 +4002,7 @@
         <v>492.0</v>
       </c>
       <c r="B493" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="494">
@@ -4010,7 +4010,7 @@
         <v>493.0</v>
       </c>
       <c r="B494" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="495">
@@ -4138,7 +4138,7 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="511">
@@ -4146,7 +4146,7 @@
         <v>510.0</v>
       </c>
       <c r="B511" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="512">
@@ -4154,7 +4154,7 @@
         <v>511.0</v>
       </c>
       <c r="B512" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="513">
@@ -4162,7 +4162,7 @@
         <v>512.0</v>
       </c>
       <c r="B513" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="514">
@@ -4714,7 +4714,7 @@
         <v>581.0</v>
       </c>
       <c r="B582" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="583">
@@ -4722,7 +4722,7 @@
         <v>582.0</v>
       </c>
       <c r="B583" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="584">
@@ -4730,7 +4730,7 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="585">
@@ -4738,7 +4738,7 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="586">
@@ -4762,7 +4762,7 @@
         <v>587.0</v>
       </c>
       <c r="B588" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="589">
@@ -4770,7 +4770,7 @@
         <v>588.0</v>
       </c>
       <c r="B589" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="590">
@@ -4778,7 +4778,7 @@
         <v>589.0</v>
       </c>
       <c r="B590" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="591">
@@ -4786,7 +4786,7 @@
         <v>590.0</v>
       </c>
       <c r="B591" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="592">
@@ -4794,7 +4794,7 @@
         <v>591.0</v>
       </c>
       <c r="B592" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="593">
@@ -4802,7 +4802,7 @@
         <v>592.0</v>
       </c>
       <c r="B593" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="594">
@@ -4810,7 +4810,7 @@
         <v>593.0</v>
       </c>
       <c r="B594" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="595">
@@ -4818,7 +4818,7 @@
         <v>594.0</v>
       </c>
       <c r="B595" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="596">
@@ -4826,7 +4826,7 @@
         <v>595.0</v>
       </c>
       <c r="B596" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="597">
@@ -4970,7 +4970,7 @@
         <v>613.0</v>
       </c>
       <c r="B614" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="615">
@@ -4978,7 +4978,7 @@
         <v>614.0</v>
       </c>
       <c r="B615" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="616">
@@ -4986,7 +4986,7 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="617">
@@ -4994,7 +4994,7 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="618">
@@ -5202,7 +5202,7 @@
         <v>642.0</v>
       </c>
       <c r="B643" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="644">
@@ -5210,7 +5210,7 @@
         <v>643.0</v>
       </c>
       <c r="B644" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="645">
@@ -5218,7 +5218,7 @@
         <v>644.0</v>
       </c>
       <c r="B645" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="646">
@@ -5226,7 +5226,7 @@
         <v>645.0</v>
       </c>
       <c r="B646" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="647">
@@ -5234,7 +5234,7 @@
         <v>646.0</v>
       </c>
       <c r="B647" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="648">
@@ -5242,7 +5242,7 @@
         <v>647.0</v>
       </c>
       <c r="B648" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="649">
@@ -5250,7 +5250,7 @@
         <v>648.0</v>
       </c>
       <c r="B649" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="650">
@@ -5258,7 +5258,7 @@
         <v>649.0</v>
       </c>
       <c r="B650" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="651">
@@ -5266,7 +5266,7 @@
         <v>650.0</v>
       </c>
       <c r="B651" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="652">
@@ -5274,7 +5274,7 @@
         <v>651.0</v>
       </c>
       <c r="B652" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="653">
@@ -5282,7 +5282,7 @@
         <v>652.0</v>
       </c>
       <c r="B653" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="654">
@@ -5290,7 +5290,7 @@
         <v>653.0</v>
       </c>
       <c r="B654" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="655">
@@ -5298,7 +5298,7 @@
         <v>654.0</v>
       </c>
       <c r="B655" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="656">
@@ -5306,7 +5306,7 @@
         <v>655.0</v>
       </c>
       <c r="B656" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="657">
@@ -5314,7 +5314,7 @@
         <v>656.0</v>
       </c>
       <c r="B657" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="658">
@@ -5322,7 +5322,7 @@
         <v>657.0</v>
       </c>
       <c r="B658" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="659">
@@ -5330,7 +5330,7 @@
         <v>658.0</v>
       </c>
       <c r="B659" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="660">
@@ -5338,7 +5338,7 @@
         <v>659.0</v>
       </c>
       <c r="B660" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="661">
@@ -5346,7 +5346,7 @@
         <v>660.0</v>
       </c>
       <c r="B661" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="662">
@@ -5354,7 +5354,7 @@
         <v>661.0</v>
       </c>
       <c r="B662" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="663">
@@ -5362,7 +5362,7 @@
         <v>662.0</v>
       </c>
       <c r="B663" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="664">
@@ -5370,7 +5370,7 @@
         <v>663.0</v>
       </c>
       <c r="B664" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="665">
@@ -5378,7 +5378,7 @@
         <v>664.0</v>
       </c>
       <c r="B665" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="666">
@@ -5386,7 +5386,7 @@
         <v>665.0</v>
       </c>
       <c r="B666" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="667">
@@ -5394,7 +5394,7 @@
         <v>666.0</v>
       </c>
       <c r="B667" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="668">
@@ -5402,7 +5402,7 @@
         <v>667.0</v>
       </c>
       <c r="B668" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="669">
@@ -5410,7 +5410,7 @@
         <v>668.0</v>
       </c>
       <c r="B669" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="670">
@@ -5418,7 +5418,7 @@
         <v>669.0</v>
       </c>
       <c r="B670" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="671">
@@ -5426,7 +5426,7 @@
         <v>670.0</v>
       </c>
       <c r="B671" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="672">
@@ -5434,7 +5434,7 @@
         <v>671.0</v>
       </c>
       <c r="B672" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="673">
@@ -5442,7 +5442,7 @@
         <v>672.0</v>
       </c>
       <c r="B673" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="674">
@@ -5450,7 +5450,7 @@
         <v>673.0</v>
       </c>
       <c r="B674" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="675">
@@ -5578,7 +5578,7 @@
         <v>689.0</v>
       </c>
       <c r="B690" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="691">
@@ -5586,7 +5586,7 @@
         <v>690.0</v>
       </c>
       <c r="B691" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="692">
@@ -5594,7 +5594,7 @@
         <v>691.0</v>
       </c>
       <c r="B692" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="693">
@@ -5602,7 +5602,7 @@
         <v>692.0</v>
       </c>
       <c r="B693" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="694">
@@ -5610,7 +5610,7 @@
         <v>693.0</v>
       </c>
       <c r="B694" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="695">
@@ -5618,7 +5618,7 @@
         <v>694.0</v>
       </c>
       <c r="B695" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="696">
@@ -5626,7 +5626,7 @@
         <v>695.0</v>
       </c>
       <c r="B696" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="697">
@@ -5634,7 +5634,7 @@
         <v>696.0</v>
       </c>
       <c r="B697" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="698">
@@ -5642,7 +5642,7 @@
         <v>697.0</v>
       </c>
       <c r="B698" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="699">
@@ -5650,7 +5650,7 @@
         <v>698.0</v>
       </c>
       <c r="B699" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="700">
@@ -5658,7 +5658,7 @@
         <v>699.0</v>
       </c>
       <c r="B700" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="701">
@@ -5666,7 +5666,7 @@
         <v>700.0</v>
       </c>
       <c r="B701" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="702">
@@ -5674,7 +5674,7 @@
         <v>701.0</v>
       </c>
       <c r="B702" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="703">
@@ -5682,7 +5682,7 @@
         <v>702.0</v>
       </c>
       <c r="B703" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="704">
@@ -5690,7 +5690,7 @@
         <v>703.0</v>
       </c>
       <c r="B704" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="705">
@@ -5698,7 +5698,7 @@
         <v>704.0</v>
       </c>
       <c r="B705" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="706">
@@ -5706,7 +5706,7 @@
         <v>705.0</v>
       </c>
       <c r="B706" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="707">
@@ -5714,7 +5714,7 @@
         <v>706.0</v>
       </c>
       <c r="B707" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="708">
@@ -5722,7 +5722,8311 @@
         <v>707.0</v>
       </c>
       <c r="B708" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>708.0</v>
+      </c>
+      <c r="B709" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>709.0</v>
+      </c>
+      <c r="B710" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B711" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>711.0</v>
+      </c>
+      <c r="B712" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>712.0</v>
+      </c>
+      <c r="B713" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>713.0</v>
+      </c>
+      <c r="B714" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>714.0</v>
+      </c>
+      <c r="B715" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>715.0</v>
+      </c>
+      <c r="B716" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>716.0</v>
+      </c>
+      <c r="B717" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>717.0</v>
+      </c>
+      <c r="B718" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>718.0</v>
+      </c>
+      <c r="B719" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>719.0</v>
+      </c>
+      <c r="B720" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>720.0</v>
+      </c>
+      <c r="B721" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>721.0</v>
+      </c>
+      <c r="B722" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>722.0</v>
+      </c>
+      <c r="B723" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>723.0</v>
+      </c>
+      <c r="B724" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="B725" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>725.0</v>
+      </c>
+      <c r="B726" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>726.0</v>
+      </c>
+      <c r="B727" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>727.0</v>
+      </c>
+      <c r="B728" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B729" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>729.0</v>
+      </c>
+      <c r="B730" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>730.0</v>
+      </c>
+      <c r="B731" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>731.0</v>
+      </c>
+      <c r="B732" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>732.0</v>
+      </c>
+      <c r="B733" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>733.0</v>
+      </c>
+      <c r="B734" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>734.0</v>
+      </c>
+      <c r="B735" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>735.0</v>
+      </c>
+      <c r="B736" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>736.0</v>
+      </c>
+      <c r="B737" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="B738" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="B739" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>739.0</v>
+      </c>
+      <c r="B740" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>740.0</v>
+      </c>
+      <c r="B741" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>741.0</v>
+      </c>
+      <c r="B742" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>742.0</v>
+      </c>
+      <c r="B743" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>743.0</v>
+      </c>
+      <c r="B744" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>744.0</v>
+      </c>
+      <c r="B745" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>745.0</v>
+      </c>
+      <c r="B746" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>746.0</v>
+      </c>
+      <c r="B747" t="n">
         <v>28.0</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>747.0</v>
+      </c>
+      <c r="B748" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>748.0</v>
+      </c>
+      <c r="B749" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>749.0</v>
+      </c>
+      <c r="B750" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="B751" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>751.0</v>
+      </c>
+      <c r="B752" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B753" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>753.0</v>
+      </c>
+      <c r="B754" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>754.0</v>
+      </c>
+      <c r="B755" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>755.0</v>
+      </c>
+      <c r="B756" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>756.0</v>
+      </c>
+      <c r="B757" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>757.0</v>
+      </c>
+      <c r="B758" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>758.0</v>
+      </c>
+      <c r="B759" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>759.0</v>
+      </c>
+      <c r="B760" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>760.0</v>
+      </c>
+      <c r="B761" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>761.0</v>
+      </c>
+      <c r="B762" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>762.0</v>
+      </c>
+      <c r="B763" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>763.0</v>
+      </c>
+      <c r="B764" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B765" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>765.0</v>
+      </c>
+      <c r="B766" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>766.0</v>
+      </c>
+      <c r="B767" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>767.0</v>
+      </c>
+      <c r="B768" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>768.0</v>
+      </c>
+      <c r="B769" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>769.0</v>
+      </c>
+      <c r="B770" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>770.0</v>
+      </c>
+      <c r="B771" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>771.0</v>
+      </c>
+      <c r="B772" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>772.0</v>
+      </c>
+      <c r="B773" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>773.0</v>
+      </c>
+      <c r="B774" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>774.0</v>
+      </c>
+      <c r="B775" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>775.0</v>
+      </c>
+      <c r="B776" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>776.0</v>
+      </c>
+      <c r="B777" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>777.0</v>
+      </c>
+      <c r="B778" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>778.0</v>
+      </c>
+      <c r="B779" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>779.0</v>
+      </c>
+      <c r="B780" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>780.0</v>
+      </c>
+      <c r="B781" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>781.0</v>
+      </c>
+      <c r="B782" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>782.0</v>
+      </c>
+      <c r="B783" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>783.0</v>
+      </c>
+      <c r="B784" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>784.0</v>
+      </c>
+      <c r="B785" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>785.0</v>
+      </c>
+      <c r="B786" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>786.0</v>
+      </c>
+      <c r="B787" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>787.0</v>
+      </c>
+      <c r="B788" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>788.0</v>
+      </c>
+      <c r="B789" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>789.0</v>
+      </c>
+      <c r="B790" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>790.0</v>
+      </c>
+      <c r="B791" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>791.0</v>
+      </c>
+      <c r="B792" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B793" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>793.0</v>
+      </c>
+      <c r="B794" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>794.0</v>
+      </c>
+      <c r="B795" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>795.0</v>
+      </c>
+      <c r="B796" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>796.0</v>
+      </c>
+      <c r="B797" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>797.0</v>
+      </c>
+      <c r="B798" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>798.0</v>
+      </c>
+      <c r="B799" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>799.0</v>
+      </c>
+      <c r="B800" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="B801" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>801.0</v>
+      </c>
+      <c r="B802" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>802.0</v>
+      </c>
+      <c r="B803" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>803.0</v>
+      </c>
+      <c r="B804" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>804.0</v>
+      </c>
+      <c r="B805" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>805.0</v>
+      </c>
+      <c r="B806" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>806.0</v>
+      </c>
+      <c r="B807" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>807.0</v>
+      </c>
+      <c r="B808" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>808.0</v>
+      </c>
+      <c r="B809" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>809.0</v>
+      </c>
+      <c r="B810" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>810.0</v>
+      </c>
+      <c r="B811" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>811.0</v>
+      </c>
+      <c r="B812" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>812.0</v>
+      </c>
+      <c r="B813" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>813.0</v>
+      </c>
+      <c r="B814" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>814.0</v>
+      </c>
+      <c r="B815" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>815.0</v>
+      </c>
+      <c r="B816" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>816.0</v>
+      </c>
+      <c r="B817" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>817.0</v>
+      </c>
+      <c r="B818" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B819" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>819.0</v>
+      </c>
+      <c r="B820" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>820.0</v>
+      </c>
+      <c r="B821" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>821.0</v>
+      </c>
+      <c r="B822" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>822.0</v>
+      </c>
+      <c r="B823" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>823.0</v>
+      </c>
+      <c r="B824" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>824.0</v>
+      </c>
+      <c r="B825" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>825.0</v>
+      </c>
+      <c r="B826" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B827" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>827.0</v>
+      </c>
+      <c r="B828" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>828.0</v>
+      </c>
+      <c r="B829" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>829.0</v>
+      </c>
+      <c r="B830" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>830.0</v>
+      </c>
+      <c r="B831" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>831.0</v>
+      </c>
+      <c r="B832" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>832.0</v>
+      </c>
+      <c r="B833" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>833.0</v>
+      </c>
+      <c r="B834" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>834.0</v>
+      </c>
+      <c r="B835" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>835.0</v>
+      </c>
+      <c r="B836" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>836.0</v>
+      </c>
+      <c r="B837" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>837.0</v>
+      </c>
+      <c r="B838" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>838.0</v>
+      </c>
+      <c r="B839" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>839.0</v>
+      </c>
+      <c r="B840" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B841" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>841.0</v>
+      </c>
+      <c r="B842" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>842.0</v>
+      </c>
+      <c r="B843" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>843.0</v>
+      </c>
+      <c r="B844" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>844.0</v>
+      </c>
+      <c r="B845" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>845.0</v>
+      </c>
+      <c r="B846" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>846.0</v>
+      </c>
+      <c r="B847" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>847.0</v>
+      </c>
+      <c r="B848" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>848.0</v>
+      </c>
+      <c r="B849" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>849.0</v>
+      </c>
+      <c r="B850" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>850.0</v>
+      </c>
+      <c r="B851" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>851.0</v>
+      </c>
+      <c r="B852" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>852.0</v>
+      </c>
+      <c r="B853" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>853.0</v>
+      </c>
+      <c r="B854" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>854.0</v>
+      </c>
+      <c r="B855" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>855.0</v>
+      </c>
+      <c r="B856" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>856.0</v>
+      </c>
+      <c r="B857" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>857.0</v>
+      </c>
+      <c r="B858" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>858.0</v>
+      </c>
+      <c r="B859" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>859.0</v>
+      </c>
+      <c r="B860" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>860.0</v>
+      </c>
+      <c r="B861" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>861.0</v>
+      </c>
+      <c r="B862" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>862.0</v>
+      </c>
+      <c r="B863" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>863.0</v>
+      </c>
+      <c r="B864" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>864.0</v>
+      </c>
+      <c r="B865" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>865.0</v>
+      </c>
+      <c r="B866" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>866.0</v>
+      </c>
+      <c r="B867" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>867.0</v>
+      </c>
+      <c r="B868" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>868.0</v>
+      </c>
+      <c r="B869" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>869.0</v>
+      </c>
+      <c r="B870" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>870.0</v>
+      </c>
+      <c r="B871" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>871.0</v>
+      </c>
+      <c r="B872" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>872.0</v>
+      </c>
+      <c r="B873" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>873.0</v>
+      </c>
+      <c r="B874" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>874.0</v>
+      </c>
+      <c r="B875" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>875.0</v>
+      </c>
+      <c r="B876" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>876.0</v>
+      </c>
+      <c r="B877" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>877.0</v>
+      </c>
+      <c r="B878" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>878.0</v>
+      </c>
+      <c r="B879" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>879.0</v>
+      </c>
+      <c r="B880" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>880.0</v>
+      </c>
+      <c r="B881" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>881.0</v>
+      </c>
+      <c r="B882" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>882.0</v>
+      </c>
+      <c r="B883" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>883.0</v>
+      </c>
+      <c r="B884" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>884.0</v>
+      </c>
+      <c r="B885" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>885.0</v>
+      </c>
+      <c r="B886" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>886.0</v>
+      </c>
+      <c r="B887" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>887.0</v>
+      </c>
+      <c r="B888" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>888.0</v>
+      </c>
+      <c r="B889" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>889.0</v>
+      </c>
+      <c r="B890" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>890.0</v>
+      </c>
+      <c r="B891" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>891.0</v>
+      </c>
+      <c r="B892" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>892.0</v>
+      </c>
+      <c r="B893" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>893.0</v>
+      </c>
+      <c r="B894" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>894.0</v>
+      </c>
+      <c r="B895" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>895.0</v>
+      </c>
+      <c r="B896" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>896.0</v>
+      </c>
+      <c r="B897" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>897.0</v>
+      </c>
+      <c r="B898" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>898.0</v>
+      </c>
+      <c r="B899" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>899.0</v>
+      </c>
+      <c r="B900" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="B901" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>901.0</v>
+      </c>
+      <c r="B902" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="B903" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>903.0</v>
+      </c>
+      <c r="B904" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>904.0</v>
+      </c>
+      <c r="B905" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>905.0</v>
+      </c>
+      <c r="B906" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>906.0</v>
+      </c>
+      <c r="B907" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>907.0</v>
+      </c>
+      <c r="B908" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>908.0</v>
+      </c>
+      <c r="B909" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>909.0</v>
+      </c>
+      <c r="B910" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>910.0</v>
+      </c>
+      <c r="B911" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>911.0</v>
+      </c>
+      <c r="B912" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>912.0</v>
+      </c>
+      <c r="B913" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>913.0</v>
+      </c>
+      <c r="B914" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>914.0</v>
+      </c>
+      <c r="B915" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>915.0</v>
+      </c>
+      <c r="B916" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>916.0</v>
+      </c>
+      <c r="B917" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>917.0</v>
+      </c>
+      <c r="B918" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>918.0</v>
+      </c>
+      <c r="B919" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>919.0</v>
+      </c>
+      <c r="B920" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>920.0</v>
+      </c>
+      <c r="B921" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>921.0</v>
+      </c>
+      <c r="B922" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>922.0</v>
+      </c>
+      <c r="B923" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>923.0</v>
+      </c>
+      <c r="B924" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>924.0</v>
+      </c>
+      <c r="B925" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>925.0</v>
+      </c>
+      <c r="B926" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>926.0</v>
+      </c>
+      <c r="B927" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>927.0</v>
+      </c>
+      <c r="B928" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>928.0</v>
+      </c>
+      <c r="B929" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>929.0</v>
+      </c>
+      <c r="B930" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>930.0</v>
+      </c>
+      <c r="B931" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>931.0</v>
+      </c>
+      <c r="B932" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>932.0</v>
+      </c>
+      <c r="B933" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>933.0</v>
+      </c>
+      <c r="B934" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>934.0</v>
+      </c>
+      <c r="B935" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>935.0</v>
+      </c>
+      <c r="B936" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>936.0</v>
+      </c>
+      <c r="B937" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>937.0</v>
+      </c>
+      <c r="B938" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>938.0</v>
+      </c>
+      <c r="B939" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="B940" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>940.0</v>
+      </c>
+      <c r="B941" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>941.0</v>
+      </c>
+      <c r="B942" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>942.0</v>
+      </c>
+      <c r="B943" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>943.0</v>
+      </c>
+      <c r="B944" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>944.0</v>
+      </c>
+      <c r="B945" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>945.0</v>
+      </c>
+      <c r="B946" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>946.0</v>
+      </c>
+      <c r="B947" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>947.0</v>
+      </c>
+      <c r="B948" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>948.0</v>
+      </c>
+      <c r="B949" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>949.0</v>
+      </c>
+      <c r="B950" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>950.0</v>
+      </c>
+      <c r="B951" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>951.0</v>
+      </c>
+      <c r="B952" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>952.0</v>
+      </c>
+      <c r="B953" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>953.0</v>
+      </c>
+      <c r="B954" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>954.0</v>
+      </c>
+      <c r="B955" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>955.0</v>
+      </c>
+      <c r="B956" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>956.0</v>
+      </c>
+      <c r="B957" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>957.0</v>
+      </c>
+      <c r="B958" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>958.0</v>
+      </c>
+      <c r="B959" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>959.0</v>
+      </c>
+      <c r="B960" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>960.0</v>
+      </c>
+      <c r="B961" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>961.0</v>
+      </c>
+      <c r="B962" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>962.0</v>
+      </c>
+      <c r="B963" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>963.0</v>
+      </c>
+      <c r="B964" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>964.0</v>
+      </c>
+      <c r="B965" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>965.0</v>
+      </c>
+      <c r="B966" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>966.0</v>
+      </c>
+      <c r="B967" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>967.0</v>
+      </c>
+      <c r="B968" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>968.0</v>
+      </c>
+      <c r="B969" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>969.0</v>
+      </c>
+      <c r="B970" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>970.0</v>
+      </c>
+      <c r="B971" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>971.0</v>
+      </c>
+      <c r="B972" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>972.0</v>
+      </c>
+      <c r="B973" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>973.0</v>
+      </c>
+      <c r="B974" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>974.0</v>
+      </c>
+      <c r="B975" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>975.0</v>
+      </c>
+      <c r="B976" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>976.0</v>
+      </c>
+      <c r="B977" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>977.0</v>
+      </c>
+      <c r="B978" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>978.0</v>
+      </c>
+      <c r="B979" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>979.0</v>
+      </c>
+      <c r="B980" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>980.0</v>
+      </c>
+      <c r="B981" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>981.0</v>
+      </c>
+      <c r="B982" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>982.0</v>
+      </c>
+      <c r="B983" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>983.0</v>
+      </c>
+      <c r="B984" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>984.0</v>
+      </c>
+      <c r="B985" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>985.0</v>
+      </c>
+      <c r="B986" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>986.0</v>
+      </c>
+      <c r="B987" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>987.0</v>
+      </c>
+      <c r="B988" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>988.0</v>
+      </c>
+      <c r="B989" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>989.0</v>
+      </c>
+      <c r="B990" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>990.0</v>
+      </c>
+      <c r="B991" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>991.0</v>
+      </c>
+      <c r="B992" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>992.0</v>
+      </c>
+      <c r="B993" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>993.0</v>
+      </c>
+      <c r="B994" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>994.0</v>
+      </c>
+      <c r="B995" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>995.0</v>
+      </c>
+      <c r="B996" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>996.0</v>
+      </c>
+      <c r="B997" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>997.0</v>
+      </c>
+      <c r="B998" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>998.0</v>
+      </c>
+      <c r="B999" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>999.0</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>1002.0</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>1003.0</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>1004.0</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>1005.0</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>1006.0</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>1007.0</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>1008.0</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>1009.0</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>1010.0</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>1011.0</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>1012.0</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>1014.0</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>1015.0</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>1017.0</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>1018.0</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>1019.0</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>1021.0</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>1022.0</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>1023.0</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>1024.0</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>1025.0</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>1026.0</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>1027.0</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>1028.0</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>1029.0</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>1030.0</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>1031.0</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>1032.0</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>1033.0</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>1034.0</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>1035.0</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>1036.0</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>1037.0</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>1038.0</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>1039.0</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>1040.0</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>1041.0</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>1042.0</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>1043.0</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>1044.0</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>1045.0</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>1046.0</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>1047.0</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>1048.0</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>1049.0</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>1050.0</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>1051.0</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>1052.0</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>1053.0</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>1054.0</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>1055.0</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>1056.0</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>1057.0</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>1058.0</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>1059.0</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>1060.0</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>1061.0</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>1062.0</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>1063.0</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>1064.0</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>1065.0</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>1066.0</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>1067.0</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>1068.0</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>1069.0</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>1070.0</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>1071.0</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>1072.0</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>1073.0</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>1074.0</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>1075.0</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>1076.0</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>1077.0</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>1078.0</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>1079.0</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>1080.0</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>1081.0</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>1082.0</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>1083.0</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>1084.0</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>1085.0</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>1086.0</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>1087.0</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>1088.0</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>1089.0</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>1091.0</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>1092.0</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>1093.0</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>1094.0</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>1095.0</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>1096.0</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>1097.0</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>1098.0</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>1099.0</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>1101.0</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>1102.0</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>1103.0</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>1104.0</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>1105.0</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>1106.0</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>1107.0</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>1108.0</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>1109.0</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>1110.0</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>1111.0</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>1112.0</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>1113.0</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>1114.0</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>1115.0</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>1116.0</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>1117.0</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="n">
+        <v>1118.0</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="n">
+        <v>1119.0</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>1120.0</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>1121.0</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>1122.0</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>1123.0</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>1124.0</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>1125.0</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>1126.0</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>1127.0</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>1128.0</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>1129.0</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>1131.0</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>1132.0</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>1133.0</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>1134.0</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>1135.0</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>1136.0</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>1137.0</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>1138.0</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>1139.0</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>1140.0</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>1141.0</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>1142.0</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>1143.0</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>1144.0</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>1145.0</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>1146.0</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>1147.0</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>1148.0</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>1149.0</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>1150.0</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>1151.0</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>1152.0</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>1153.0</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>1154.0</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>1155.0</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>1156.0</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>1157.0</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>1158.0</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>1159.0</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>1160.0</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>1161.0</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>1162.0</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>1163.0</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>1164.0</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>1165.0</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>1166.0</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>1167.0</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>1168.0</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>1169.0</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>1170.0</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>1171.0</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>1172.0</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>1173.0</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>1174.0</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>1175.0</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>1176.0</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>1177.0</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>1178.0</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>1179.0</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>1180.0</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>1181.0</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>1182.0</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>1183.0</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>1184.0</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>1185.0</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1186.0</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1187.0</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1188.0</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1189.0</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1190.0</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1191.0</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1192.0</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1193.0</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1194.0</v>
+      </c>
+      <c r="B1195" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1195.0</v>
+      </c>
+      <c r="B1196" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1196.0</v>
+      </c>
+      <c r="B1197" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1197.0</v>
+      </c>
+      <c r="B1198" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1198.0</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1199.0</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1201.0</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1202.0</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1203.0</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1204.0</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1205.0</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1206.0</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1207.0</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1208.0</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1209.0</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1210.0</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1211.0</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1212.0</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1213.0</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1214.0</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1215.0</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1216.0</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1217.0</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1218.0</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1219.0</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1220.0</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1221.0</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1222.0</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1223.0</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1224.0</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1225.0</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1226.0</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1227.0</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1228.0</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1229.0</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1230.0</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1231.0</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1232.0</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1233.0</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1234.0</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1235.0</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1236.0</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1237.0</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1238.0</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1239.0</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1240.0</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="n">
+        <v>1241.0</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="n">
+        <v>1242.0</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="n">
+        <v>1243.0</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="n">
+        <v>1244.0</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="n">
+        <v>1245.0</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="n">
+        <v>1246.0</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="n">
+        <v>1247.0</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="n">
+        <v>1248.0</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="n">
+        <v>1249.0</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="n">
+        <v>1250.0</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="n">
+        <v>1251.0</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="n">
+        <v>1252.0</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="n">
+        <v>1253.0</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="n">
+        <v>1254.0</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="n">
+        <v>1255.0</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="n">
+        <v>1256.0</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="n">
+        <v>1257.0</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="n">
+        <v>1258.0</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="n">
+        <v>1259.0</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="n">
+        <v>1260.0</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="n">
+        <v>1261.0</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="n">
+        <v>1262.0</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="n">
+        <v>1263.0</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="n">
+        <v>1264.0</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="n">
+        <v>1265.0</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="n">
+        <v>1266.0</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="n">
+        <v>1267.0</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="n">
+        <v>1268.0</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="n">
+        <v>1269.0</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="n">
+        <v>1270.0</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="n">
+        <v>1271.0</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="n">
+        <v>1272.0</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="n">
+        <v>1273.0</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="n">
+        <v>1274.0</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="n">
+        <v>1275.0</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="n">
+        <v>1276.0</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="n">
+        <v>1277.0</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="n">
+        <v>1278.0</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="n">
+        <v>1279.0</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="n">
+        <v>1280.0</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="n">
+        <v>1281.0</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="n">
+        <v>1282.0</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="n">
+        <v>1283.0</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="n">
+        <v>1284.0</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="n">
+        <v>1285.0</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="n">
+        <v>1286.0</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="n">
+        <v>1287.0</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="n">
+        <v>1288.0</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="n">
+        <v>1289.0</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="n">
+        <v>1290.0</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="n">
+        <v>1291.0</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="n">
+        <v>1292.0</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="n">
+        <v>1293.0</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="n">
+        <v>1294.0</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="n">
+        <v>1295.0</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="n">
+        <v>1296.0</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="n">
+        <v>1297.0</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="n">
+        <v>1298.0</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="n">
+        <v>1299.0</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="n">
+        <v>1301.0</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="n">
+        <v>1302.0</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="n">
+        <v>1303.0</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="n">
+        <v>1304.0</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="n">
+        <v>1305.0</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="n">
+        <v>1306.0</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="n">
+        <v>1307.0</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="n">
+        <v>1308.0</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="n">
+        <v>1309.0</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="n">
+        <v>1310.0</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="n">
+        <v>1311.0</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="n">
+        <v>1312.0</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="n">
+        <v>1313.0</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="n">
+        <v>1314.0</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="n">
+        <v>1315.0</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="n">
+        <v>1316.0</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="n">
+        <v>1317.0</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="n">
+        <v>1318.0</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="n">
+        <v>1319.0</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="n">
+        <v>1320.0</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="n">
+        <v>1321.0</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="n">
+        <v>1322.0</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="n">
+        <v>1323.0</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="n">
+        <v>1324.0</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="n">
+        <v>1325.0</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="n">
+        <v>1326.0</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="n">
+        <v>1327.0</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="n">
+        <v>1328.0</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="n">
+        <v>1329.0</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="n">
+        <v>1330.0</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="n">
+        <v>1331.0</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="n">
+        <v>1332.0</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="n">
+        <v>1333.0</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="n">
+        <v>1334.0</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="n">
+        <v>1335.0</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="n">
+        <v>1336.0</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="n">
+        <v>1337.0</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="n">
+        <v>1338.0</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="n">
+        <v>1339.0</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="n">
+        <v>1340.0</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="n">
+        <v>1341.0</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="n">
+        <v>1342.0</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="n">
+        <v>1343.0</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="n">
+        <v>1344.0</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="n">
+        <v>1345.0</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="n">
+        <v>1346.0</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="n">
+        <v>1347.0</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="n">
+        <v>1348.0</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="n">
+        <v>1349.0</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="n">
+        <v>1350.0</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="n">
+        <v>1351.0</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="n">
+        <v>1352.0</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="n">
+        <v>1353.0</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="n">
+        <v>1354.0</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="n">
+        <v>1355.0</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="n">
+        <v>1356.0</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="n">
+        <v>1357.0</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="n">
+        <v>1358.0</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="n">
+        <v>1359.0</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="n">
+        <v>1360.0</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="n">
+        <v>1361.0</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="n">
+        <v>1362.0</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="n">
+        <v>1363.0</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="n">
+        <v>1364.0</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="n">
+        <v>1365.0</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="n">
+        <v>1366.0</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="n">
+        <v>1367.0</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="n">
+        <v>1368.0</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="n">
+        <v>1369.0</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="n">
+        <v>1370.0</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="n">
+        <v>1371.0</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="n">
+        <v>1372.0</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="n">
+        <v>1373.0</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="n">
+        <v>1374.0</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="n">
+        <v>1375.0</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="n">
+        <v>1376.0</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="n">
+        <v>1377.0</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="n">
+        <v>1378.0</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="n">
+        <v>1379.0</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="n">
+        <v>1380.0</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="n">
+        <v>1381.0</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="n">
+        <v>1382.0</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="n">
+        <v>1383.0</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="n">
+        <v>1384.0</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="n">
+        <v>1385.0</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="n">
+        <v>1386.0</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="n">
+        <v>1387.0</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="n">
+        <v>1388.0</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="n">
+        <v>1389.0</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="n">
+        <v>1390.0</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="n">
+        <v>1391.0</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="n">
+        <v>1392.0</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="n">
+        <v>1393.0</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="n">
+        <v>1394.0</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="n">
+        <v>1395.0</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="n">
+        <v>1396.0</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="n">
+        <v>1397.0</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="n">
+        <v>1398.0</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="n">
+        <v>1399.0</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="n">
+        <v>1400.0</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="n">
+        <v>1401.0</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="n">
+        <v>1402.0</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="n">
+        <v>1403.0</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="n">
+        <v>1404.0</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="n">
+        <v>1405.0</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="n">
+        <v>1406.0</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="n">
+        <v>1407.0</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="n">
+        <v>1408.0</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="n">
+        <v>1409.0</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="n">
+        <v>1410.0</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="n">
+        <v>1411.0</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="n">
+        <v>1412.0</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="n">
+        <v>1413.0</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="n">
+        <v>1414.0</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="n">
+        <v>1415.0</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="n">
+        <v>1416.0</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="n">
+        <v>1417.0</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="n">
+        <v>1418.0</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="n">
+        <v>1419.0</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="n">
+        <v>1420.0</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="n">
+        <v>1421.0</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="n">
+        <v>1422.0</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="n">
+        <v>1423.0</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="n">
+        <v>1424.0</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="n">
+        <v>1425.0</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="n">
+        <v>1426.0</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="n">
+        <v>1427.0</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="n">
+        <v>1428.0</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="n">
+        <v>1429.0</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="n">
+        <v>1430.0</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="n">
+        <v>1431.0</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="n">
+        <v>1432.0</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="n">
+        <v>1433.0</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="n">
+        <v>1434.0</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="n">
+        <v>1435.0</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="n">
+        <v>1436.0</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="n">
+        <v>1437.0</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="n">
+        <v>1438.0</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="n">
+        <v>1439.0</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="n">
+        <v>1440.0</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="n">
+        <v>1441.0</v>
+      </c>
+      <c r="B1442" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="n">
+        <v>1442.0</v>
+      </c>
+      <c r="B1443" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="n">
+        <v>1443.0</v>
+      </c>
+      <c r="B1444" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="n">
+        <v>1444.0</v>
+      </c>
+      <c r="B1445" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="n">
+        <v>1445.0</v>
+      </c>
+      <c r="B1446" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="n">
+        <v>1446.0</v>
+      </c>
+      <c r="B1447" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="n">
+        <v>1447.0</v>
+      </c>
+      <c r="B1448" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="n">
+        <v>1448.0</v>
+      </c>
+      <c r="B1449" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="n">
+        <v>1449.0</v>
+      </c>
+      <c r="B1450" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="n">
+        <v>1450.0</v>
+      </c>
+      <c r="B1451" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="n">
+        <v>1451.0</v>
+      </c>
+      <c r="B1452" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="n">
+        <v>1452.0</v>
+      </c>
+      <c r="B1453" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="n">
+        <v>1453.0</v>
+      </c>
+      <c r="B1454" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="n">
+        <v>1454.0</v>
+      </c>
+      <c r="B1455" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="n">
+        <v>1455.0</v>
+      </c>
+      <c r="B1456" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="n">
+        <v>1456.0</v>
+      </c>
+      <c r="B1457" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="n">
+        <v>1457.0</v>
+      </c>
+      <c r="B1458" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="n">
+        <v>1458.0</v>
+      </c>
+      <c r="B1459" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="n">
+        <v>1459.0</v>
+      </c>
+      <c r="B1460" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="n">
+        <v>1460.0</v>
+      </c>
+      <c r="B1461" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="n">
+        <v>1461.0</v>
+      </c>
+      <c r="B1462" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="n">
+        <v>1462.0</v>
+      </c>
+      <c r="B1463" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="n">
+        <v>1463.0</v>
+      </c>
+      <c r="B1464" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="n">
+        <v>1464.0</v>
+      </c>
+      <c r="B1465" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="n">
+        <v>1465.0</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="n">
+        <v>1466.0</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="n">
+        <v>1467.0</v>
+      </c>
+      <c r="B1468" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="n">
+        <v>1468.0</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="n">
+        <v>1469.0</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="n">
+        <v>1470.0</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="n">
+        <v>1471.0</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="n">
+        <v>1472.0</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="n">
+        <v>1473.0</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="n">
+        <v>1474.0</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="n">
+        <v>1475.0</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="n">
+        <v>1476.0</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="n">
+        <v>1477.0</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="n">
+        <v>1478.0</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="n">
+        <v>1479.0</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="n">
+        <v>1480.0</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="n">
+        <v>1481.0</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="n">
+        <v>1482.0</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="n">
+        <v>1483.0</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="n">
+        <v>1484.0</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="n">
+        <v>1485.0</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="n">
+        <v>1486.0</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="n">
+        <v>1487.0</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="n">
+        <v>1488.0</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="n">
+        <v>1489.0</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="n">
+        <v>1490.0</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="n">
+        <v>1491.0</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="n">
+        <v>1492.0</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="n">
+        <v>1493.0</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="n">
+        <v>1494.0</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="n">
+        <v>1495.0</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="n">
+        <v>1496.0</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="n">
+        <v>1497.0</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="n">
+        <v>1498.0</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="n">
+        <v>1499.0</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="n">
+        <v>1501.0</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="n">
+        <v>1502.0</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="n">
+        <v>1503.0</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="n">
+        <v>1504.0</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="n">
+        <v>1505.0</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="n">
+        <v>1506.0</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="n">
+        <v>1507.0</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="n">
+        <v>1508.0</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="n">
+        <v>1509.0</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="n">
+        <v>1510.0</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="n">
+        <v>1511.0</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="n">
+        <v>1512.0</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="n">
+        <v>1513.0</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="n">
+        <v>1514.0</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="n">
+        <v>1515.0</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="n">
+        <v>1516.0</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="n">
+        <v>1517.0</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="n">
+        <v>1518.0</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="n">
+        <v>1519.0</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="n">
+        <v>1520.0</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="n">
+        <v>1521.0</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="n">
+        <v>1522.0</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="n">
+        <v>1523.0</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="n">
+        <v>1524.0</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="n">
+        <v>1525.0</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="n">
+        <v>1526.0</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="n">
+        <v>1527.0</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="n">
+        <v>1528.0</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="n">
+        <v>1529.0</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="n">
+        <v>1530.0</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="n">
+        <v>1531.0</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="n">
+        <v>1532.0</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="n">
+        <v>1533.0</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="n">
+        <v>1534.0</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="n">
+        <v>1535.0</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="n">
+        <v>1536.0</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="n">
+        <v>1537.0</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="n">
+        <v>1538.0</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="n">
+        <v>1539.0</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="n">
+        <v>1540.0</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="n">
+        <v>1541.0</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="n">
+        <v>1542.0</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="n">
+        <v>1543.0</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="n">
+        <v>1544.0</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="n">
+        <v>1545.0</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="n">
+        <v>1546.0</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="n">
+        <v>1547.0</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="n">
+        <v>1548.0</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="n">
+        <v>1549.0</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="n">
+        <v>1550.0</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="n">
+        <v>1551.0</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="n">
+        <v>1552.0</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="n">
+        <v>1553.0</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="n">
+        <v>1554.0</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="n">
+        <v>1555.0</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="n">
+        <v>1556.0</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="n">
+        <v>1557.0</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="n">
+        <v>1558.0</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="n">
+        <v>1559.0</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="n">
+        <v>1560.0</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="n">
+        <v>1561.0</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="n">
+        <v>1562.0</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="n">
+        <v>1563.0</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="n">
+        <v>1564.0</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="n">
+        <v>1565.0</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="n">
+        <v>1566.0</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="n">
+        <v>1567.0</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="n">
+        <v>1568.0</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="n">
+        <v>1569.0</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="n">
+        <v>1570.0</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="n">
+        <v>1571.0</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="n">
+        <v>1572.0</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="n">
+        <v>1573.0</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="n">
+        <v>1574.0</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="n">
+        <v>1575.0</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="n">
+        <v>1576.0</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="n">
+        <v>1577.0</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="n">
+        <v>1578.0</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="n">
+        <v>1579.0</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="n">
+        <v>1580.0</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="n">
+        <v>1581.0</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="n">
+        <v>1582.0</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="n">
+        <v>1583.0</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="n">
+        <v>1584.0</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="n">
+        <v>1585.0</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="n">
+        <v>1586.0</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="n">
+        <v>1587.0</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="n">
+        <v>1588.0</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="n">
+        <v>1589.0</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="n">
+        <v>1590.0</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="n">
+        <v>1591.0</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="n">
+        <v>1592.0</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="n">
+        <v>1593.0</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="n">
+        <v>1594.0</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="n">
+        <v>1595.0</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="n">
+        <v>1596.0</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="n">
+        <v>1597.0</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="n">
+        <v>1598.0</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="n">
+        <v>1599.0</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="n">
+        <v>1600.0</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="n">
+        <v>1601.0</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="n">
+        <v>1602.0</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="n">
+        <v>1603.0</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="n">
+        <v>1604.0</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="n">
+        <v>1605.0</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="n">
+        <v>1606.0</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="n">
+        <v>1607.0</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="n">
+        <v>1608.0</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="n">
+        <v>1609.0</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="n">
+        <v>1610.0</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="n">
+        <v>1611.0</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="n">
+        <v>1612.0</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="n">
+        <v>1613.0</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="n">
+        <v>1614.0</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="n">
+        <v>1615.0</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="n">
+        <v>1616.0</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="n">
+        <v>1617.0</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="n">
+        <v>1618.0</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="n">
+        <v>1619.0</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="n">
+        <v>1620.0</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="n">
+        <v>1621.0</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="n">
+        <v>1622.0</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="n">
+        <v>1623.0</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="n">
+        <v>1624.0</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="n">
+        <v>1625.0</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="n">
+        <v>1626.0</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="n">
+        <v>1627.0</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="n">
+        <v>1628.0</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="n">
+        <v>1629.0</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="n">
+        <v>1630.0</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="n">
+        <v>1631.0</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="n">
+        <v>1632.0</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="n">
+        <v>1633.0</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="n">
+        <v>1634.0</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="n">
+        <v>1635.0</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="n">
+        <v>1636.0</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="n">
+        <v>1637.0</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="n">
+        <v>1638.0</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="n">
+        <v>1639.0</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="n">
+        <v>1640.0</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="n">
+        <v>1641.0</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="n">
+        <v>1642.0</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="n">
+        <v>1643.0</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="n">
+        <v>1644.0</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="n">
+        <v>1645.0</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="n">
+        <v>1646.0</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="n">
+        <v>1647.0</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="n">
+        <v>1648.0</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="n">
+        <v>1649.0</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>66.0</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="n">
+        <v>1650.0</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="n">
+        <v>1651.0</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="n">
+        <v>1652.0</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="n">
+        <v>1653.0</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="n">
+        <v>1654.0</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="n">
+        <v>1655.0</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="n">
+        <v>1656.0</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="n">
+        <v>1657.0</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="n">
+        <v>1658.0</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="n">
+        <v>1659.0</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="n">
+        <v>1660.0</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="n">
+        <v>1661.0</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="n">
+        <v>1662.0</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="n">
+        <v>1663.0</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="n">
+        <v>1664.0</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="n">
+        <v>1665.0</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="n">
+        <v>1666.0</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="n">
+        <v>1667.0</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="n">
+        <v>1668.0</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="n">
+        <v>1669.0</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="n">
+        <v>1670.0</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="n">
+        <v>1671.0</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="n">
+        <v>1672.0</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="n">
+        <v>1673.0</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="n">
+        <v>1674.0</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="n">
+        <v>1675.0</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="n">
+        <v>1676.0</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="n">
+        <v>1677.0</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="n">
+        <v>1678.0</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="n">
+        <v>1679.0</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="n">
+        <v>1681.0</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="n">
+        <v>1682.0</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="n">
+        <v>1683.0</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="n">
+        <v>1684.0</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="n">
+        <v>1685.0</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="n">
+        <v>1686.0</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="n">
+        <v>1687.0</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="n">
+        <v>1688.0</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="n">
+        <v>1689.0</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="n">
+        <v>1690.0</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="n">
+        <v>1691.0</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="n">
+        <v>1692.0</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="n">
+        <v>1693.0</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="n">
+        <v>1694.0</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="n">
+        <v>1695.0</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="n">
+        <v>1696.0</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="n">
+        <v>1697.0</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="n">
+        <v>1698.0</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="n">
+        <v>1699.0</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="n">
+        <v>1701.0</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="n">
+        <v>1702.0</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="n">
+        <v>1703.0</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="n">
+        <v>1704.0</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="n">
+        <v>1705.0</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="n">
+        <v>1706.0</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="n">
+        <v>1707.0</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="n">
+        <v>1708.0</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="n">
+        <v>1709.0</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="n">
+        <v>1710.0</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="n">
+        <v>1711.0</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="n">
+        <v>1712.0</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="n">
+        <v>1713.0</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="n">
+        <v>1714.0</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="n">
+        <v>1715.0</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="n">
+        <v>1716.0</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="n">
+        <v>1717.0</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="n">
+        <v>1718.0</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="n">
+        <v>1721.0</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="n">
+        <v>1722.0</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="n">
+        <v>1723.0</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="n">
+        <v>1724.0</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="n">
+        <v>1725.0</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="n">
+        <v>1726.0</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="n">
+        <v>1727.0</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="n">
+        <v>1728.0</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="n">
+        <v>1729.0</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="n">
+        <v>1730.0</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="n">
+        <v>1731.0</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="n">
+        <v>1732.0</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="n">
+        <v>1733.0</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="n">
+        <v>1734.0</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="n">
+        <v>1735.0</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="n">
+        <v>1736.0</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="n">
+        <v>1737.0</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="n">
+        <v>1738.0</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="n">
+        <v>1741.0</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="n">
+        <v>1742.0</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="n">
+        <v>1743.0</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="n">
+        <v>1744.0</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="n">
+        <v>1745.0</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>70.0</v>
       </c>
     </row>
   </sheetData>
